--- a/data/trans_camb/P16B07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 7,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 5,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 5,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 5,28</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 7,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 6,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 5,64</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 7,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 8,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 8,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 8,31</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,96%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 8,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 9,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 8,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 9,07</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 4,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 4,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 4,7</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 5,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 4,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 4,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,12</t>
+          <t>0,0; 9,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,85</t>
+          <t>0,0; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 7,33</t>
+          <t>-0,33; 6,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,88</t>
+          <t>-0,98; 6,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,92</t>
+          <t>0,04; 6,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,28</t>
+          <t>-0,69; 5,39</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,03</t>
+          <t>0,0; 10,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>0,0; 10,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,91</t>
+          <t>-0,33; 6,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,29</t>
+          <t>-0,99; 6,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 6,31</t>
+          <t>0,04; 6,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,64</t>
+          <t>-0,69; 5,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,19</t>
+          <t>0,0; 28,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,19</t>
+          <t>0,0; 28,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,47</t>
+          <t>-2,21; 7,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,55</t>
+          <t>-0,78; 8,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 8,16</t>
+          <t>-0,81; 8,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,31</t>
+          <t>-0,57; 8,15</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,25</t>
+          <t>0,0; 39,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,25</t>
+          <t>0,0; 39,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,19</t>
+          <t>-2,24; 8,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 9,34</t>
+          <t>-0,78; 9,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 8,97</t>
+          <t>-0,81; 8,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 9,07</t>
+          <t>-0,57; 8,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,06</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,1</t>
+          <t>-0,3; 4,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,97</t>
+          <t>-0,11; 4,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,62</t>
+          <t>0,22; 4,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,7</t>
+          <t>0,4; 4,34</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,96</t>
+          <t>0,0; 10,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,42</t>
+          <t>-0,3; 5,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,24</t>
+          <t>-0,11; 5,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,87</t>
+          <t>0,24; 4,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,94</t>
+          <t>0,4; 4,55</t>
         </is>
       </c>
     </row>
